--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_8_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_8_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.37000000000053</v>
+        <v>25.8400000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>9.106859596097472e-06</v>
+        <v>0.000128378529096751</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001947504099334546</v>
+        <v>0.003258625825198164</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.394491329492109</v>
+        <v>4.36576024717086</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.388492112359617, 8.4004905466246]</t>
+          <t>[1.9301836425729402, 6.801336851768779]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0004622021155562539</v>
+        <v>0.0004692003707209569</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0009244042311125078</v>
+        <v>0.0009384007414419138</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.251631971942234</v>
+        <v>-1.42142130072331</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.779947853627004, -1.7233160902574638]</t>
+          <t>[-2.1132635267390807, -0.729579074707539]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>6.304169505977342e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0.0001260833901195468</v>
       </c>
       <c r="S2" t="n">
-        <v>13.22460340530226</v>
+        <v>13.64314009029865</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.687470765099524, 14.761736045505005]</t>
+          <t>[12.220562583149047, 15.065717597448252]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>9.091551551551738</v>
+        <v>5.845685685685822</v>
       </c>
       <c r="X2" t="n">
-        <v>6.95833833833848</v>
+        <v>3.000440440440509</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.224764764765</v>
+        <v>8.690930930931136</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002804279867156811</v>
+        <v>0.01088044110989639</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01281956510700257</v>
+        <v>0.06643600926369818</v>
       </c>
       <c r="I3" t="n">
-        <v>3.39621537788215e-05</v>
+        <v>2.315581509870768e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.833759902698381</v>
+        <v>5.222625362313411</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.278611817323684, 10.388907988073077]</t>
+          <t>[0.9287875602336388, 9.516463164393183]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0123477714796747</v>
+        <v>0.01739891774252045</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0123477714796747</v>
+        <v>0.01739891774252045</v>
       </c>
       <c r="O3" t="n">
-        <v>0.798763297309117</v>
+        <v>0.5094474573388847</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1320789704211922, 1.4654476241970418]</t>
+          <t>[-0.5534737808126167, 1.5723686954903862]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.01912370261530572</v>
+        <v>0.3456388677100648</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01912370261530572</v>
+        <v>0.3456388677100648</v>
       </c>
       <c r="S3" t="n">
-        <v>14.86897167106335</v>
+        <v>13.33983611157445</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.553008161630881, 17.184935180495827]</t>
+          <t>[10.95409299237457, 15.725579230774336]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.2032032032032</v>
+        <v>20.21621621621622</v>
       </c>
       <c r="X3" t="n">
-        <v>16.86886886886887</v>
+        <v>16.4944944944945</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.53753753753754</v>
+        <v>23.93793793793794</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_8_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_8_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8400000000006</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000128378529096751</v>
+        <v>8.553208824646497e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003258625825198164</v>
+        <v>0.0002886062659030526</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.36576024717086</v>
+        <v>4.998968166802349</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.9301836425729402, 6.801336851768779]</t>
+          <t>[2.6645961078277622, 7.3333402257769364]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0004692003707209569</v>
+        <v>3.08088670397666e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0009384007414419138</v>
+        <v>6.161773407953319e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.42142130072331</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.1132635267390807, -0.729579074707539]</t>
+          <t>[-2.062947728483387, -0.9308422677303092]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.304169505977342e-05</v>
+        <v>3.020440215717457e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001260833901195468</v>
+        <v>6.040880431434914e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>13.64314009029865</v>
+        <v>12.35994019633243</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.220562583149047, 15.065717597448252]</t>
+          <t>[10.94026186751679, 13.779618525148079]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.845685685685822</v>
+        <v>6.182282282282429</v>
       </c>
       <c r="X2" t="n">
-        <v>3.000440440440509</v>
+        <v>3.844444444444538</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.690930930931136</v>
+        <v>8.520120120120321</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01088044110989639</v>
+        <v>0.06204460685925595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06643600926369818</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.315581509870768e-07</v>
-      </c>
+        <v>0.1951608203620261</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.222625362313411</v>
+        <v>4.327407470278431</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.9287875602336388, 9.516463164393183]</t>
+          <t>[-0.6337880526357491, 9.288602993192612]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.01739891774252045</v>
+        <v>0.08696043598386249</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01739891774252045</v>
+        <v>0.08696043598386249</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5094474573388847</v>
+        <v>2.408868841491273</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.5534737808126167, 1.5723686954903862]</t>
+          <t>[-0.5849211547224229, 5.402658837704969]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3456388677100648</v>
+        <v>0.1141404870397551</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3456388677100648</v>
+        <v>0.1141404870397551</v>
       </c>
       <c r="S3" t="n">
-        <v>13.33983611157445</v>
+        <v>14.09749980045164</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.95409299237457, 15.725579230774336]</t>
+          <t>[11.582840792556766, 16.612158808346514]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.21621621621622</v>
+        <v>13.86770770770775</v>
       </c>
       <c r="X3" t="n">
-        <v>16.4944944944945</v>
+        <v>3.151751751751766</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.93793793793794</v>
+        <v>24.58366366366374</v>
       </c>
     </row>
   </sheetData>
